--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -46,10 +46,34 @@
     <t>触发器参数</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>OnInteract</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>Pangoo.Core.VisualScripting.TriggerEventOnInteraction</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>调试日志2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>进入触发器触发</t>
+  </si>
+  <si>
+    <t>Pangoo.Core.VisualScripting.TriggerEventOnTriggerEnter3d</t>
   </si>
 </sst>
 </file>
@@ -67,7 +91,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,7 +98,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,14 +105,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,7 +118,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,7 +125,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,7 +132,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,7 +139,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,14 +146,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,7 +159,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,7 +166,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,14 +173,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,35 +186,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -656,8 +661,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -977,82 +1127,114 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="10.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.5833333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.075" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="C4" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12550"/>
+    <workbookView windowHeight="18400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -31,12 +31,24 @@
     <t>Params</t>
   </si>
   <si>
+    <t>UseCondition</t>
+  </si>
+  <si>
+    <t>ConditionList</t>
+  </si>
+  <si>
+    <t>FailInstructionList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>触发类型</t>
   </si>
   <si>
@@ -44,6 +56,15 @@
   </si>
   <si>
     <t>触发器参数</t>
+  </si>
+  <si>
+    <t>是否使用条件</t>
+  </si>
+  <si>
+    <t>条件列表</t>
+  </si>
+  <si>
+    <t>失败指令列表</t>
   </si>
   <si>
     <t>1</t>
@@ -91,6 +112,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +120,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,12 +128,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,6 +143,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,6 +151,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +159,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,6 +167,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,12 +175,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +190,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +198,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,12 +206,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,30 +221,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -661,153 +701,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1127,114 +1022,147 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="14.1166666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.45" customWidth="1"/>
+    <col min="7" max="7" width="12.35" customWidth="1"/>
+    <col min="8" max="8" width="15.4166666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>6</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>9</v>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>14</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>14</v>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>14</v>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Enabled</t>
+  </si>
+  <si>
     <t>TriggerType</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>是否打开</t>
   </si>
   <si>
     <t>触发类型</t>
@@ -1022,21 +1028,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="4" max="4" width="14.1166666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.45" customWidth="1"/>
-    <col min="7" max="7" width="12.35" customWidth="1"/>
-    <col min="8" max="8" width="15.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.9" customWidth="1"/>
+    <col min="5" max="5" width="14.1166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.45" customWidth="1"/>
+    <col min="8" max="8" width="12.35" customWidth="1"/>
+    <col min="9" max="9" width="15.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,34 +1068,40 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1096,73 +1109,76 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,12 @@
     <t>TriggerType</t>
   </si>
   <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>TargetListType</t>
+  </si>
+  <si>
     <t>InstructionList</t>
   </si>
   <si>
@@ -56,6 +62,12 @@
   </si>
   <si>
     <t>触发类型</t>
+  </si>
+  <si>
+    <t>触发对象列表</t>
+  </si>
+  <si>
+    <t>目标列表类型</t>
   </si>
   <si>
     <t>指令列表</t>
@@ -1028,22 +1040,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="14.9" customWidth="1"/>
-    <col min="5" max="5" width="14.1166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.45" customWidth="1"/>
-    <col min="8" max="8" width="12.35" customWidth="1"/>
-    <col min="9" max="9" width="15.4166666666667" customWidth="1"/>
+    <col min="5" max="6" width="13.425" customWidth="1"/>
+    <col min="7" max="7" width="14.1166666666667" customWidth="1"/>
+    <col min="9" max="9" width="12.45" customWidth="1"/>
+    <col min="10" max="10" width="12.35" customWidth="1"/>
+    <col min="11" max="11" width="15.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,37 +1084,49 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1109,76 +1134,82 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -91,7 +91,16 @@
     <t>调试</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>Pangoo.Core.VisualScripting.TriggerEventOnInteraction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>1|2|3</t>
@@ -130,7 +139,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,7 +146,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,14 +153,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,7 +166,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,7 +173,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,7 +180,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,7 +187,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,14 +194,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,7 +207,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,7 +214,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,14 +221,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,35 +234,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -719,8 +709,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1047,168 +1182,214 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
-  <cols>
-    <col min="3" max="3" width="14.9" customWidth="1"/>
-    <col min="5" max="6" width="13.425" customWidth="1"/>
-    <col min="7" max="7" width="14.1166666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.45" customWidth="1"/>
-    <col min="10" max="10" width="12.35" customWidth="1"/>
-    <col min="11" max="11" width="15.4166666666667" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E4" s="49" t="s">
         <v>27</v>
       </c>
+      <c r="F4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" s="49" t="s">
         <v>27</v>
       </c>
     </row>

--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Params</t>
   </si>
   <si>
-    <t>UseCondition</t>
+    <t>ConditionType</t>
   </si>
   <si>
     <t>ConditionList</t>
@@ -76,7 +76,7 @@
     <t>触发器参数</t>
   </si>
   <si>
-    <t>是否使用条件</t>
+    <t>条件类型</t>
   </si>
   <si>
     <t>条件列表</t>
@@ -139,6 +139,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,6 +147,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,12 +155,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +170,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,6 +178,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,6 +186,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,6 +194,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,12 +202,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +217,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +225,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,12 +233,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,30 +248,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -709,153 +728,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1178,218 +1052,222 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <cols>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.0833333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="49" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
     </row>

--- a/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
+++ b/StreamRes/ExcelTable/Excel/TriggerEvent.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -94,25 +94,31 @@
     <t>False</t>
   </si>
   <si>
+    <t>OnInteract</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>NoCondition</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>调试日志2</t>
+  </si>
+  <si>
     <t>Pangoo.Core.VisualScripting.TriggerEventOnInteraction</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1|2|3</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>调试日志2</t>
   </si>
   <si>
     <t>3</t>
@@ -139,7 +145,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,7 +152,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,14 +159,12 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,7 +172,6 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,7 +179,6 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,7 +186,6 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,7 +193,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,14 +200,12 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,7 +213,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +220,6 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,14 +227,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,35 +240,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -728,8 +715,153 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="16" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="17" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="18" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="19" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="20" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="21" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1056,218 +1188,214 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
-  <cols>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="12.0833333333333" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="49" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="H5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K6" s="49" t="s">
         <v>27</v>
       </c>
     </row>
